--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3934.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3934.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.378086083664599</v>
+        <v>0.4298446476459503</v>
       </c>
       <c r="B1">
-        <v>2.205438154667018</v>
+        <v>0.8415980339050293</v>
       </c>
       <c r="C1">
-        <v>5.753459201241317</v>
+        <v>4.973837375640869</v>
       </c>
       <c r="D1">
-        <v>4.339530391735203</v>
+        <v>2.160943269729614</v>
       </c>
       <c r="E1">
-        <v>1.240843303226382</v>
+        <v>1.301877737045288</v>
       </c>
     </row>
   </sheetData>
